--- a/data/misused_bar_graph_figures/nat_cell_biol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cell_biol/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cell_biol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76826FF-6780-B344-9005-189897149EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FF561E-4013-4840-BC97-CF213C6DC322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="67">
   <si>
     <t>DOI</t>
   </si>
@@ -146,9 +146,6 @@
     <t>Adjusted p-value</t>
   </si>
   <si>
-    <t>IFQ intensity</t>
-  </si>
-  <si>
     <t>Cell invation (count)</t>
   </si>
   <si>
@@ -171,13 +168,79 @@
   </si>
   <si>
     <t>Total flux (p/s)</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Calculated value</t>
+  </si>
+  <si>
+    <t>Relative expression</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>DNA count</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Cell count</t>
+  </si>
+  <si>
+    <t>LFQ intensity</t>
+  </si>
+  <si>
+    <t>Protein amount</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Bioluminescence</t>
+  </si>
+  <si>
+    <t>Relative luminescence</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>Radiant flux</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,12 +252,28 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -205,7 +284,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -239,19 +318,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,18 +649,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="166" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="245" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="8.83203125" style="3"/>
+    <col min="5" max="5" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,8 +676,23 @@
       <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -598,8 +708,23 @@
       <c r="E2" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -615,8 +740,23 @@
       <c r="E3" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -632,8 +772,23 @@
       <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -649,8 +804,23 @@
       <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -666,8 +836,23 @@
       <c r="E6" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -683,8 +868,23 @@
       <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -700,8 +900,23 @@
       <c r="E8" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -717,8 +932,23 @@
       <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -734,8 +964,23 @@
       <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -751,8 +996,23 @@
       <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -768,8 +1028,23 @@
       <c r="E12" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -785,8 +1060,23 @@
       <c r="E13" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -802,8 +1092,23 @@
       <c r="E14" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -819,8 +1124,23 @@
       <c r="E15" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -836,8 +1156,23 @@
       <c r="E16" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" t="s">
+        <v>62</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -853,8 +1188,23 @@
       <c r="E17" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -870,8 +1220,23 @@
       <c r="E18" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -887,8 +1252,23 @@
       <c r="E19" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -904,8 +1284,23 @@
       <c r="E20" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -919,10 +1314,25 @@
         <v>7</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -936,10 +1346,25 @@
         <v>7</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -953,10 +1378,25 @@
         <v>7</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -970,10 +1410,25 @@
         <v>7</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -987,10 +1442,25 @@
         <v>7</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1004,10 +1474,25 @@
         <v>7</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1021,10 +1506,25 @@
         <v>7</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1038,10 +1538,25 @@
         <v>7</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="F28" t="s">
+        <v>54</v>
+      </c>
+      <c r="G28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1055,10 +1570,25 @@
         <v>7</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1072,10 +1602,25 @@
         <v>7</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="F30" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1089,10 +1634,25 @@
         <v>7</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+      <c r="J31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1106,10 +1666,25 @@
         <v>7</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="F32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1123,10 +1698,25 @@
         <v>7</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="F33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
@@ -1140,7 +1730,22 @@
         <v>7</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/nat_cell_biol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cell_biol/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cell_biol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FF561E-4013-4840-BC97-CF213C6DC322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373FC523-422E-0D49-832D-930FDFE74D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="101">
   <si>
     <t>DOI</t>
   </si>
@@ -234,6 +234,108 @@
   </si>
   <si>
     <t>Radiant flux</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01075-8_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01075-8_log_fig10</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01075-8_log_fig11</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01075-8_log_fig12</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01075-8_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01075-8_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01075-8_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01075-8_log_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01075-8_log_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01075-8_log_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01075-8_log_fig8</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01075-8_log_fig9</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01079-4_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01079-4_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01079-4_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01079-4_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01092-1_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01095-y_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01109-9_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01122-y_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01122-y_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01141-9_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01182-0_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01182-0_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01182-0_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01212-x_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01225-6_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01225-6_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01271-0_log_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01271-0_log_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01271-0_log_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01271-0_log_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01273-y_log_fig1</t>
   </si>
 </sst>
 </file>
@@ -649,454 +751,493 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="245" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
       <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
         <v>51</v>
       </c>
-      <c r="H2" t="s">
-        <v>52</v>
-      </c>
       <c r="I2" t="s">
         <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
       <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
         <v>51</v>
       </c>
-      <c r="H3" t="s">
-        <v>52</v>
-      </c>
       <c r="I3" t="s">
         <v>52</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
-        <v>50</v>
-      </c>
       <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
         <v>51</v>
       </c>
-      <c r="H4" t="s">
-        <v>52</v>
-      </c>
       <c r="I4" t="s">
         <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
       <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
         <v>51</v>
       </c>
-      <c r="H5" t="s">
-        <v>52</v>
-      </c>
       <c r="I5" t="s">
         <v>52</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
       <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
         <v>51</v>
       </c>
-      <c r="H6" t="s">
-        <v>52</v>
-      </c>
       <c r="I6" t="s">
         <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
-        <v>50</v>
-      </c>
       <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
         <v>51</v>
       </c>
-      <c r="H7" t="s">
-        <v>52</v>
-      </c>
       <c r="I7" t="s">
         <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
       <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
         <v>51</v>
       </c>
-      <c r="H8" t="s">
-        <v>52</v>
-      </c>
       <c r="I8" t="s">
         <v>52</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
       <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
         <v>51</v>
       </c>
-      <c r="H9" t="s">
-        <v>52</v>
-      </c>
       <c r="I9" t="s">
         <v>52</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F10" t="s">
-        <v>50</v>
-      </c>
       <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
         <v>51</v>
       </c>
-      <c r="H10" t="s">
-        <v>52</v>
-      </c>
       <c r="I10" t="s">
         <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
       <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
         <v>51</v>
       </c>
-      <c r="H11" t="s">
-        <v>52</v>
-      </c>
       <c r="I11" t="s">
         <v>52</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
       <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
         <v>51</v>
       </c>
-      <c r="H12" t="s">
-        <v>52</v>
-      </c>
       <c r="I12" t="s">
         <v>52</v>
       </c>
       <c r="J12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F13" t="s">
-        <v>50</v>
-      </c>
       <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
         <v>51</v>
       </c>
-      <c r="H13" t="s">
-        <v>52</v>
-      </c>
       <c r="I13" t="s">
         <v>52</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
         <v>62</v>
@@ -1105,30 +1246,33 @@
         <v>62</v>
       </c>
       <c r="J14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="G15" s="6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>62</v>
@@ -1137,30 +1281,33 @@
         <v>62</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s">
         <v>62</v>
@@ -1169,30 +1316,33 @@
         <v>62</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F17" t="s">
-        <v>50</v>
-      </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s">
         <v>62</v>
@@ -1201,318 +1351,348 @@
         <v>62</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="K17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>54</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>55</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>42</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>56</v>
       </c>
-      <c r="J18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="K18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F19" t="s">
-        <v>50</v>
-      </c>
       <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
         <v>51</v>
       </c>
-      <c r="H19" t="s">
-        <v>52</v>
-      </c>
       <c r="I19" t="s">
         <v>52</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>54</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>55</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>42</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>56</v>
       </c>
-      <c r="J20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="K20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F21" t="s">
-        <v>50</v>
-      </c>
       <c r="G21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
         <v>55</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>60</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>61</v>
       </c>
-      <c r="J21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="K21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
       <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>11</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F22" t="s">
-        <v>50</v>
-      </c>
       <c r="G22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" t="s">
         <v>55</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>60</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>61</v>
       </c>
-      <c r="J22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="K22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>6</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>54</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>55</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>59</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>58</v>
       </c>
-      <c r="J23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="K23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
       <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F24" t="s">
-        <v>50</v>
-      </c>
       <c r="G24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" t="s">
         <v>51</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>63</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>64</v>
       </c>
-      <c r="J24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="K24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F25" t="s">
-        <v>50</v>
-      </c>
       <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s">
         <v>51</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>63</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>64</v>
       </c>
-      <c r="J25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="K25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>12</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>54</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>55</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>57</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>58</v>
       </c>
-      <c r="J26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="K26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>6</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F27" t="s">
-        <v>50</v>
-      </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s">
         <v>62</v>
@@ -1521,230 +1701,254 @@
         <v>62</v>
       </c>
       <c r="J27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
       <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>6</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>54</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>55</v>
-      </c>
-      <c r="H28" t="s">
-        <v>65</v>
       </c>
       <c r="I28" t="s">
         <v>65</v>
       </c>
       <c r="J28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="K28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
       <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>11</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>54</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>55</v>
-      </c>
-      <c r="H29" t="s">
-        <v>65</v>
       </c>
       <c r="I29" t="s">
         <v>65</v>
       </c>
       <c r="J29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="K29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
       <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>54</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>55</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>42</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>56</v>
       </c>
-      <c r="J30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="K30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>11</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>54</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>55</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>42</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>56</v>
       </c>
-      <c r="J31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="K31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>54</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>55</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>42</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>56</v>
       </c>
-      <c r="J32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="K32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
         <v>28</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>13</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>54</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>55</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>42</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>56</v>
       </c>
-      <c r="J33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="K33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
         <v>29</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
       <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>54</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>55</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>63</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>66</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>53</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/nat_cell_biol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cell_biol/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cell_biol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373FC523-422E-0D49-832D-930FDFE74D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABAD83B-7402-9F41-A4A1-475C6BE8BCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="102">
   <si>
     <t>DOI</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>10.1038:s41556-023-01273-y_log_fig1</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -753,13 +756,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="245" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="F15" zoomScale="245" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -1488,10 +1492,10 @@
         <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J21" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="K21" t="s">
         <v>53</v>
@@ -1523,10 +1527,10 @@
         <v>55</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J22" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="K22" t="s">
         <v>53</v>

--- a/data/misused_bar_graph_figures/nat_cell_biol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cell_biol/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cell_biol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABAD83B-7402-9F41-A4A1-475C6BE8BCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65A5F72-3D90-E847-8DB3-E41D84AAF8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -756,14 +756,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F15" zoomScale="245" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="245" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -1597,10 +1598,10 @@
         <v>51</v>
       </c>
       <c r="I24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" t="s">
         <v>63</v>
-      </c>
-      <c r="J24" t="s">
-        <v>64</v>
       </c>
       <c r="K24" t="s">
         <v>53</v>
@@ -1632,10 +1633,10 @@
         <v>51</v>
       </c>
       <c r="I25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" t="s">
         <v>63</v>
-      </c>
-      <c r="J25" t="s">
-        <v>64</v>
       </c>
       <c r="K25" t="s">
         <v>53</v>
@@ -1947,10 +1948,10 @@
         <v>55</v>
       </c>
       <c r="I34" t="s">
+        <v>66</v>
+      </c>
+      <c r="J34" t="s">
         <v>63</v>
-      </c>
-      <c r="J34" t="s">
-        <v>66</v>
       </c>
       <c r="K34" t="s">
         <v>53</v>

--- a/data/misused_bar_graph_figures/nat_cell_biol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cell_biol/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cell_biol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E65A5F72-3D90-E847-8DB3-E41D84AAF8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EA0729-8AB4-C244-8E1C-215B57FDB8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="99">
   <si>
     <t>DOI</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Calculated value</t>
   </si>
   <si>
-    <t>Relative expression</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>Statistics</t>
   </si>
   <si>
-    <t>DNA count</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
   </si>
   <si>
     <t>LFQ intensity</t>
-  </si>
-  <si>
-    <t>Protein amount</t>
   </si>
   <si>
     <t>Ratio</t>
@@ -756,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="245" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="G14" zoomScale="245" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -769,7 +760,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -804,7 +795,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -828,18 +819,18 @@
         <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -863,18 +854,18 @@
         <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -898,18 +889,18 @@
         <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J4" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -933,18 +924,18 @@
         <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -968,18 +959,18 @@
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1003,18 +994,18 @@
         <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1038,18 +1029,18 @@
         <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J8" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1073,18 +1064,18 @@
         <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1108,18 +1099,18 @@
         <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1143,18 +1134,18 @@
         <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1178,18 +1169,18 @@
         <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1213,18 +1204,18 @@
         <v>51</v>
       </c>
       <c r="I13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1245,21 +1236,21 @@
         <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -1280,21 +1271,21 @@
         <v>50</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1315,21 +1306,21 @@
         <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -1350,21 +1341,21 @@
         <v>50</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1382,24 +1373,24 @@
         <v>34</v>
       </c>
       <c r="G18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" t="s">
         <v>54</v>
-      </c>
-      <c r="H18" t="s">
-        <v>55</v>
       </c>
       <c r="I18" t="s">
         <v>42</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
@@ -1423,18 +1414,18 @@
         <v>51</v>
       </c>
       <c r="I19" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
@@ -1452,24 +1443,24 @@
         <v>36</v>
       </c>
       <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
         <v>54</v>
-      </c>
-      <c r="H20" t="s">
-        <v>55</v>
       </c>
       <c r="I20" t="s">
         <v>42</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
         <v>23</v>
@@ -1484,27 +1475,27 @@
         <v>7</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
         <v>50</v>
       </c>
       <c r="H21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="J21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
@@ -1519,27 +1510,27 @@
         <v>7</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
         <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I22" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="J22" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
@@ -1557,24 +1548,24 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" t="s">
         <v>54</v>
       </c>
-      <c r="H23" t="s">
-        <v>55</v>
-      </c>
       <c r="I23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
@@ -1598,18 +1589,18 @@
         <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -1633,18 +1624,18 @@
         <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -1662,24 +1653,24 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" t="s">
         <v>54</v>
       </c>
-      <c r="H26" t="s">
-        <v>55</v>
-      </c>
       <c r="I26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -1700,21 +1691,21 @@
         <v>50</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -1732,24 +1723,24 @@
         <v>41</v>
       </c>
       <c r="G28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" t="s">
         <v>54</v>
       </c>
-      <c r="H28" t="s">
-        <v>55</v>
-      </c>
       <c r="I28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -1767,24 +1758,24 @@
         <v>43</v>
       </c>
       <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" t="s">
         <v>54</v>
       </c>
-      <c r="H29" t="s">
-        <v>55</v>
-      </c>
       <c r="I29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -1802,24 +1793,24 @@
         <v>42</v>
       </c>
       <c r="G30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" t="s">
         <v>54</v>
-      </c>
-      <c r="H30" t="s">
-        <v>55</v>
       </c>
       <c r="I30" t="s">
         <v>42</v>
       </c>
       <c r="J30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
         <v>28</v>
@@ -1837,24 +1828,24 @@
         <v>42</v>
       </c>
       <c r="G31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" t="s">
         <v>54</v>
-      </c>
-      <c r="H31" t="s">
-        <v>55</v>
       </c>
       <c r="I31" t="s">
         <v>42</v>
       </c>
       <c r="J31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
         <v>28</v>
@@ -1872,24 +1863,24 @@
         <v>42</v>
       </c>
       <c r="G32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" t="s">
         <v>54</v>
-      </c>
-      <c r="H32" t="s">
-        <v>55</v>
       </c>
       <c r="I32" t="s">
         <v>42</v>
       </c>
       <c r="J32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
         <v>28</v>
@@ -1907,24 +1898,24 @@
         <v>42</v>
       </c>
       <c r="G33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" t="s">
         <v>54</v>
-      </c>
-      <c r="H33" t="s">
-        <v>55</v>
       </c>
       <c r="I33" t="s">
         <v>42</v>
       </c>
       <c r="J33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
         <v>29</v>
@@ -1942,19 +1933,19 @@
         <v>44</v>
       </c>
       <c r="G34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" t="s">
         <v>54</v>
       </c>
-      <c r="H34" t="s">
-        <v>55</v>
-      </c>
       <c r="I34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/nat_cell_biol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cell_biol/log/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cell_biol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EA0729-8AB4-C244-8E1C-215B57FDB8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D94DC3-9E56-F546-8A6E-A5EFC9D9A062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="92">
   <si>
     <t>DOI</t>
   </si>
@@ -92,9 +92,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>10.1038:s41556-022-01079-4</t>
-  </si>
-  <si>
     <t>10.1038:s41556-023-01092-1</t>
   </si>
   <si>
@@ -131,12 +128,6 @@
     <t>Relative fold change in gene expression</t>
   </si>
   <si>
-    <t>log2 fold change</t>
-  </si>
-  <si>
-    <t>Fold change</t>
-  </si>
-  <si>
     <t>-log(p-value)</t>
   </si>
   <si>
@@ -264,18 +255,6 @@
   </si>
   <si>
     <t>10.1038:s41556-022-01075-8_log_fig9</t>
-  </si>
-  <si>
-    <t>10.1038:s41556-022-01079-4_log_fig1</t>
-  </si>
-  <si>
-    <t>10.1038:s41556-022-01079-4_log_fig2</t>
-  </si>
-  <si>
-    <t>10.1038:s41556-022-01079-4_log_fig3</t>
-  </si>
-  <si>
-    <t>10.1038:s41556-022-01079-4_log_fig4</t>
   </si>
   <si>
     <t>10.1038:s41556-023-01092-1_log_fig1</t>
@@ -336,7 +315,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,13 +339,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -427,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -442,7 +414,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,14 +716,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G14" zoomScale="245" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21:I22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="245" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
@@ -760,7 +732,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -775,27 +747,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -810,27 +782,27 @@
         <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -845,27 +817,27 @@
         <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -880,27 +852,27 @@
         <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -915,27 +887,27 @@
         <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -950,27 +922,27 @@
         <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -985,27 +957,27 @@
         <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1020,27 +992,27 @@
         <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1055,27 +1027,27 @@
         <v>7</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1090,27 +1062,27 @@
         <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1125,27 +1097,27 @@
         <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1160,27 +1132,27 @@
         <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1195,27 +1167,27 @@
         <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1230,36 +1202,36 @@
         <v>7</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
         <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I14" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -1267,133 +1239,133 @@
       <c r="F15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>52</v>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
         <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="K17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="J18" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1405,7 +1377,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>50</v>
@@ -1414,21 +1386,21 @@
         <v>51</v>
       </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1440,100 +1412,100 @@
         <v>7</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
         <v>58</v>
       </c>
-      <c r="G21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" t="s">
-        <v>98</v>
-      </c>
       <c r="J21" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="K21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="K22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1548,27 +1520,27 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J23" t="s">
         <v>56</v>
       </c>
       <c r="K23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1589,21 +1561,21 @@
         <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1615,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
         <v>50</v>
@@ -1624,27 +1596,27 @@
         <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E26" t="s">
         <v>7</v>
@@ -1653,59 +1625,59 @@
         <v>39</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
         <v>50</v>
       </c>
       <c r="H27" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -1714,33 +1686,33 @@
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="J28" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -1749,33 +1721,33 @@
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E29" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -1790,162 +1762,22 @@
         <v>7</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="J30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>7</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G31" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" t="s">
-        <v>42</v>
-      </c>
-      <c r="J31" t="s">
-        <v>55</v>
-      </c>
-      <c r="K31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" t="s">
-        <v>54</v>
-      </c>
-      <c r="I32" t="s">
-        <v>42</v>
-      </c>
-      <c r="J32" t="s">
-        <v>55</v>
-      </c>
-      <c r="K32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" t="s">
-        <v>7</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" t="s">
-        <v>54</v>
-      </c>
-      <c r="I33" t="s">
-        <v>42</v>
-      </c>
-      <c r="J33" t="s">
-        <v>55</v>
-      </c>
-      <c r="K33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G34" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" t="s">
-        <v>54</v>
-      </c>
-      <c r="I34" t="s">
-        <v>63</v>
-      </c>
-      <c r="J34" t="s">
-        <v>60</v>
-      </c>
-      <c r="K34" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/nat_cell_biol/log/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cell_biol/log/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cell_biol/log/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D94DC3-9E56-F546-8A6E-A5EFC9D9A062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA816E6-EAAA-8845-AD48-C26E8DF4D4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -122,9 +122,6 @@
     <t>10.1038:s41556-023-01273-y</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Relative fold change in gene expression</t>
   </si>
   <si>
@@ -167,12 +164,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -309,25 +300,28 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Measurand</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -404,15 +398,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,21 +712,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="245" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="245" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -746,28 +740,28 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -781,28 +775,28 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>30</v>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -816,28 +810,28 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>30</v>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -851,28 +845,28 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>30</v>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -886,28 +880,28 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>30</v>
+      <c r="F5" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -921,28 +915,28 @@
       <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>30</v>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -956,28 +950,28 @@
       <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>30</v>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -991,28 +985,28 @@
       <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>30</v>
+      <c r="F8" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1026,28 +1020,28 @@
       <c r="E9" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>30</v>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1061,28 +1055,28 @@
       <c r="E10" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>30</v>
+      <c r="F10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1096,28 +1090,28 @@
       <c r="E11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>30</v>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1131,28 +1125,28 @@
       <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>30</v>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1166,28 +1160,28 @@
       <c r="E13" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>30</v>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1201,28 +1195,28 @@
       <c r="E14" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>31</v>
+      <c r="F14" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -1236,28 +1230,28 @@
       <c r="E15" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>32</v>
+      <c r="F15" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -1271,28 +1265,28 @@
       <c r="E16" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>33</v>
+      <c r="F16" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -1306,28 +1300,28 @@
       <c r="E17" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>55</v>
+      <c r="F17" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -1341,28 +1335,28 @@
       <c r="E18" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>55</v>
+      <c r="F18" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -1376,28 +1370,28 @@
       <c r="E19" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>34</v>
+      <c r="F19" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="G19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" t="s">
         <v>50</v>
       </c>
-      <c r="H19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" t="s">
-        <v>53</v>
-      </c>
       <c r="K19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -1411,28 +1405,28 @@
       <c r="E20" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>35</v>
+      <c r="F20" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
@@ -1446,28 +1440,28 @@
       <c r="E21" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>35</v>
+      <c r="F21" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
         <v>24</v>
@@ -1481,28 +1475,28 @@
       <c r="E22" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>36</v>
+      <c r="F22" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="G22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" t="s">
+        <v>48</v>
+      </c>
+      <c r="I22" t="s">
         <v>50</v>
       </c>
-      <c r="H22" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" t="s">
-        <v>53</v>
-      </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -1516,28 +1510,28 @@
       <c r="E23" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>37</v>
+      <c r="F23" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1551,28 +1545,28 @@
       <c r="E24" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>38</v>
+      <c r="F24" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1586,28 +1580,28 @@
       <c r="E25" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>40</v>
+      <c r="F25" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
@@ -1621,28 +1615,28 @@
       <c r="E26" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>39</v>
+      <c r="F26" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -1656,28 +1650,28 @@
       <c r="E27" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>39</v>
+      <c r="F27" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
@@ -1691,28 +1685,28 @@
       <c r="E28" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>39</v>
+      <c r="F28" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -1726,28 +1720,28 @@
       <c r="E29" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>39</v>
+      <c r="F29" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
@@ -1761,23 +1755,23 @@
       <c r="E30" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>41</v>
+      <c r="F30" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
